--- a/ExplorerFund/operation/strategy_update/dce/dce_day_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/dce/dce_day_config.xlsx
@@ -711,7 +711,7 @@
   <dimension ref="A1:XES20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -49909,7 +49909,7 @@
         <v>34</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
@@ -49936,7 +49936,7 @@
         <v>34</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
@@ -50036,7 +50036,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>52</v>
@@ -50062,7 +50062,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>52</v>
@@ -50088,7 +50088,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>52</v>
@@ -50114,7 +50114,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>52</v>
@@ -50140,7 +50140,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>52</v>
@@ -50166,7 +50166,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>52</v>
@@ -50192,7 +50192,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>52</v>
@@ -50218,7 +50218,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>52</v>
@@ -50244,7 +50244,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>52</v>
